--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I3_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/R209_I3_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1504" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
+      <c r="C3" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D3" t="s" s="2">
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -564,10 +576,10 @@
       <c r="I15">
         <f>((C15-C14)^2+(D15- D14)^2)^.5</f>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="J15" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="K15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L15" t="n">
@@ -611,28 +623,28 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="s" s="2">
+      <c r="A17" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B17" t="s" s="2">
+      <c r="B17" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C17" t="s" s="2">
+      <c r="C17" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D17" t="s" s="2">
+      <c r="D17" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E17" t="s" s="2">
+      <c r="E17" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F17" t="s" s="2">
+      <c r="F17" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G17" t="s" s="2">
+      <c r="G17" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H17" t="s" s="2">
+      <c r="H17" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -657,28 +669,28 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="s" s="2">
+      <c r="B19" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C19" t="s" s="2">
+      <c r="C19" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D19" t="s" s="2">
+      <c r="D19" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E19" t="s" s="2">
+      <c r="E19" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F19" t="s" s="2">
+      <c r="F19" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="G19" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H19" t="s" s="2">
+      <c r="H19" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I19" t="s" s="2">
+      <c r="I19" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -882,10 +894,10 @@
       <c r="I26">
         <f>((C26-C25)^2+(D26- D25)^2)^.5</f>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="K26" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L26" t="n">
@@ -929,28 +941,28 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="s" s="2">
+      <c r="A28" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B28" t="s" s="2">
+      <c r="B28" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C28" t="s" s="2">
+      <c r="C28" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D28" t="s" s="2">
+      <c r="D28" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E28" t="s" s="2">
+      <c r="E28" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F28" t="s" s="2">
+      <c r="F28" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G28" t="s" s="2">
+      <c r="G28" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H28" t="s" s="2">
+      <c r="H28" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -975,28 +987,28 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="s" s="2">
+      <c r="B30" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C30" t="s" s="2">
+      <c r="C30" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D30" t="s" s="2">
+      <c r="D30" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E30" t="s" s="2">
+      <c r="E30" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="2">
+      <c r="F30" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G30" t="s" s="2">
+      <c r="G30" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H30" t="s" s="2">
+      <c r="H30" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I30" t="s" s="2">
+      <c r="I30" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1113,10 +1125,10 @@
       <c r="I34">
         <f>((C34-C33)^2+(D34- D33)^2)^.5</f>
       </c>
-      <c r="J34" s="2" t="s">
+      <c r="J34" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K34" s="2" t="s">
+      <c r="K34" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L34" t="n">
@@ -1160,28 +1172,28 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="s" s="2">
+      <c r="A36" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B36" t="s" s="2">
+      <c r="B36" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C36" t="s" s="2">
+      <c r="C36" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D36" t="s" s="2">
+      <c r="D36" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E36" t="s" s="2">
+      <c r="E36" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F36" t="s" s="2">
+      <c r="F36" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G36" t="s" s="2">
+      <c r="G36" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H36" t="s" s="2">
+      <c r="H36" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1206,28 +1218,28 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="s" s="2">
+      <c r="B38" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C38" t="s" s="2">
+      <c r="C38" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D38" t="s" s="2">
+      <c r="D38" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E38" t="s" s="2">
+      <c r="E38" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F38" t="s" s="2">
+      <c r="F38" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G38" t="s" s="2">
+      <c r="G38" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H38" t="s" s="2">
+      <c r="H38" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I38" t="s" s="2">
+      <c r="I38" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1576,10 +1588,10 @@
       <c r="I50">
         <f>((C50-C49)^2+(D50- D49)^2)^.5</f>
       </c>
-      <c r="J50" s="2" t="s">
+      <c r="J50" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K50" s="2" t="s">
+      <c r="K50" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L50" t="n">
@@ -1623,28 +1635,28 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="s" s="2">
+      <c r="A52" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B52" t="s" s="2">
+      <c r="B52" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C52" t="s" s="2">
+      <c r="C52" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D52" t="s" s="2">
+      <c r="D52" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E52" t="s" s="2">
+      <c r="E52" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F52" t="s" s="2">
+      <c r="F52" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G52" t="s" s="2">
+      <c r="G52" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H52" t="s" s="2">
+      <c r="H52" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1669,28 +1681,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C54" t="s" s="2">
+      <c r="C54" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D54" t="s" s="2">
+      <c r="D54" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I54" t="s" s="2">
+      <c r="I54" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1923,10 +1935,10 @@
       <c r="I62">
         <f>((C62-C61)^2+(D62- D61)^2)^.5</f>
       </c>
-      <c r="J62" s="2" t="s">
+      <c r="J62" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K62" s="2" t="s">
+      <c r="K62" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L62" t="n">
@@ -1970,28 +1982,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="s" s="2">
+      <c r="A64" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2016,28 +2028,28 @@
       </c>
     </row>
     <row r="66">
-      <c r="B66" t="s" s="2">
+      <c r="B66" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C66" t="s" s="2">
+      <c r="C66" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D66" t="s" s="2">
+      <c r="D66" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E66" t="s" s="2">
+      <c r="E66" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F66" t="s" s="2">
+      <c r="F66" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G66" t="s" s="2">
+      <c r="G66" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H66" t="s" s="2">
+      <c r="H66" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I66" t="s" s="2">
+      <c r="I66" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2212,10 +2224,10 @@
       <c r="I72">
         <f>((C72-C71)^2+(D72- D71)^2)^.5</f>
       </c>
-      <c r="J72" s="2" t="s">
+      <c r="J72" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K72" s="2" t="s">
+      <c r="K72" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L72" t="n">
@@ -2259,28 +2271,28 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="s" s="2">
+      <c r="A74" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B74" t="s" s="2">
+      <c r="B74" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C74" t="s" s="2">
+      <c r="C74" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D74" t="s" s="2">
+      <c r="D74" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E74" t="s" s="2">
+      <c r="E74" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F74" t="s" s="2">
+      <c r="F74" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G74" t="s" s="2">
+      <c r="G74" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H74" t="s" s="2">
+      <c r="H74" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2305,28 +2317,28 @@
       </c>
     </row>
     <row r="76">
-      <c r="B76" t="s" s="2">
+      <c r="B76" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C76" t="s" s="2">
+      <c r="C76" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D76" t="s" s="2">
+      <c r="D76" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E76" t="s" s="2">
+      <c r="E76" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F76" t="s" s="2">
+      <c r="F76" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G76" t="s" s="2">
+      <c r="G76" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H76" t="s" s="2">
+      <c r="H76" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I76" t="s" s="2">
+      <c r="I76" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2443,10 +2455,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
+      <c r="J80" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K80" s="2" t="s">
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2490,28 +2502,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
+      <c r="C82" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D82" t="s" s="2">
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2536,28 +2548,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2790,10 +2802,10 @@
       <c r="I92">
         <f>((C92-C91)^2+(D92- D91)^2)^.5</f>
       </c>
-      <c r="J92" s="2" t="s">
+      <c r="J92" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K92" s="2" t="s">
+      <c r="K92" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L92" t="n">
@@ -2837,28 +2849,28 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="s" s="2">
+      <c r="A94" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B94" t="s" s="2">
+      <c r="B94" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C94" t="s" s="2">
+      <c r="C94" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D94" t="s" s="2">
+      <c r="D94" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E94" t="s" s="2">
+      <c r="E94" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F94" t="s" s="2">
+      <c r="F94" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G94" t="s" s="2">
+      <c r="G94" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H94" t="s" s="2">
+      <c r="H94" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2883,28 +2895,28 @@
       </c>
     </row>
     <row r="96">
-      <c r="B96" t="s" s="2">
+      <c r="B96" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C96" t="s" s="2">
+      <c r="C96" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D96" t="s" s="2">
+      <c r="D96" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E96" t="s" s="2">
+      <c r="E96" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F96" t="s" s="2">
+      <c r="F96" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G96" t="s" s="2">
+      <c r="G96" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H96" t="s" s="2">
+      <c r="H96" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I96" t="s" s="2">
+      <c r="I96" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2963,10 +2975,10 @@
       <c r="I98">
         <f>((C98-C97)^2+(D98- D97)^2)^.5</f>
       </c>
-      <c r="J98" s="2" t="s">
+      <c r="J98" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K98" s="2" t="s">
+      <c r="K98" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L98" t="n">
@@ -3010,28 +3022,28 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="s" s="2">
+      <c r="A100" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B100" t="s" s="2">
+      <c r="B100" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C100" t="s" s="2">
+      <c r="C100" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D100" t="s" s="2">
+      <c r="D100" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E100" t="s" s="2">
+      <c r="E100" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F100" t="s" s="2">
+      <c r="F100" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G100" t="s" s="2">
+      <c r="G100" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H100" t="s" s="2">
+      <c r="H100" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3056,28 +3068,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C102" t="s" s="2">
+      <c r="C102" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D102" t="s" s="2">
+      <c r="D102" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I102" t="s" s="2">
+      <c r="I102" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3136,10 +3148,10 @@
       <c r="I104">
         <f>((C104-C103)^2+(D104- D103)^2)^.5</f>
       </c>
-      <c r="J104" s="2" t="s">
+      <c r="J104" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="K104" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L104" t="n">
@@ -3183,28 +3195,28 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="s" s="2">
+      <c r="A106" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B106" t="s" s="2">
+      <c r="B106" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C106" t="s" s="2">
+      <c r="C106" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D106" t="s" s="2">
+      <c r="D106" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E106" t="s" s="2">
+      <c r="E106" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F106" t="s" s="2">
+      <c r="F106" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G106" t="s" s="2">
+      <c r="G106" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H106" t="s" s="2">
+      <c r="H106" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3229,28 +3241,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C108" t="s" s="2">
+      <c r="C108" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D108" t="s" s="2">
+      <c r="D108" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I108" t="s" s="2">
+      <c r="I108" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3483,10 +3495,10 @@
       <c r="I116">
         <f>((C116-C115)^2+(D116- D115)^2)^.5</f>
       </c>
-      <c r="J116" s="2" t="s">
+      <c r="J116" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K116" s="2" t="s">
+      <c r="K116" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L116" t="n">
@@ -3530,28 +3542,28 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="s" s="2">
+      <c r="A118" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B118" t="s" s="2">
+      <c r="B118" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C118" t="s" s="2">
+      <c r="C118" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D118" t="s" s="2">
+      <c r="D118" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E118" t="s" s="2">
+      <c r="E118" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F118" t="s" s="2">
+      <c r="F118" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G118" t="s" s="2">
+      <c r="G118" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H118" t="s" s="2">
+      <c r="H118" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3576,28 +3588,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C120" t="s" s="2">
+      <c r="C120" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D120" t="s" s="2">
+      <c r="D120" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I120" t="s" s="2">
+      <c r="I120" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3685,10 +3697,10 @@
       <c r="I123">
         <f>((C123-C122)^2+(D123- D122)^2)^.5</f>
       </c>
-      <c r="J123" s="2" t="s">
+      <c r="J123" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K123" s="2" t="s">
+      <c r="K123" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L123" t="n">
@@ -3732,28 +3744,28 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="s" s="2">
+      <c r="A125" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B125" t="s" s="2">
+      <c r="B125" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C125" t="s" s="2">
+      <c r="C125" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D125" t="s" s="2">
+      <c r="D125" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E125" t="s" s="2">
+      <c r="E125" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F125" t="s" s="2">
+      <c r="F125" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G125" t="s" s="2">
+      <c r="G125" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H125" t="s" s="2">
+      <c r="H125" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3778,28 +3790,28 @@
       </c>
     </row>
     <row r="127">
-      <c r="B127" t="s" s="2">
+      <c r="B127" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C127" t="s" s="2">
+      <c r="C127" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D127" t="s" s="2">
+      <c r="D127" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E127" t="s" s="2">
+      <c r="E127" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F127" t="s" s="2">
+      <c r="F127" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G127" t="s" s="2">
+      <c r="G127" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H127" t="s" s="2">
+      <c r="H127" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I127" t="s" s="2">
+      <c r="I127" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3858,10 +3870,10 @@
       <c r="I129">
         <f>((C129-C128)^2+(D129- D128)^2)^.5</f>
       </c>
-      <c r="J129" s="2" t="s">
+      <c r="J129" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K129" s="2" t="s">
+      <c r="K129" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L129" t="n">
@@ -3905,28 +3917,28 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="s" s="2">
+      <c r="A131" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B131" t="s" s="2">
+      <c r="B131" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C131" t="s" s="2">
+      <c r="C131" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D131" t="s" s="2">
+      <c r="D131" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E131" t="s" s="2">
+      <c r="E131" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F131" t="s" s="2">
+      <c r="F131" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G131" t="s" s="2">
+      <c r="G131" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H131" t="s" s="2">
+      <c r="H131" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3951,28 +3963,28 @@
       </c>
     </row>
     <row r="133">
-      <c r="B133" t="s" s="2">
+      <c r="B133" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C133" t="s" s="2">
+      <c r="C133" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D133" t="s" s="2">
+      <c r="D133" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E133" t="s" s="2">
+      <c r="E133" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F133" t="s" s="2">
+      <c r="F133" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G133" t="s" s="2">
+      <c r="G133" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H133" t="s" s="2">
+      <c r="H133" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I133" t="s" s="2">
+      <c r="I133" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4031,10 +4043,10 @@
       <c r="I135">
         <f>((C135-C134)^2+(D135- D134)^2)^.5</f>
       </c>
-      <c r="J135" s="2" t="s">
+      <c r="J135" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K135" s="2" t="s">
+      <c r="K135" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L135" t="n">
@@ -4078,28 +4090,28 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="s" s="2">
+      <c r="A137" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B137" t="s" s="2">
+      <c r="B137" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C137" t="s" s="2">
+      <c r="C137" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D137" t="s" s="2">
+      <c r="D137" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E137" t="s" s="2">
+      <c r="E137" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F137" t="s" s="2">
+      <c r="F137" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G137" t="s" s="2">
+      <c r="G137" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H137" t="s" s="2">
+      <c r="H137" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4124,28 +4136,28 @@
       </c>
     </row>
     <row r="139">
-      <c r="B139" t="s" s="2">
+      <c r="B139" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C139" t="s" s="2">
+      <c r="C139" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D139" t="s" s="2">
+      <c r="D139" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E139" t="s" s="2">
+      <c r="E139" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F139" t="s" s="2">
+      <c r="F139" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G139" t="s" s="2">
+      <c r="G139" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H139" t="s" s="2">
+      <c r="H139" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I139" t="s" s="2">
+      <c r="I139" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4320,10 +4332,10 @@
       <c r="I145">
         <f>((C145-C144)^2+(D145- D144)^2)^.5</f>
       </c>
-      <c r="J145" s="2" t="s">
+      <c r="J145" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K145" s="2" t="s">
+      <c r="K145" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L145" t="n">
@@ -4367,28 +4379,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="s" s="2">
+      <c r="A147" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4413,28 +4425,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="B149" t="s" s="2">
+      <c r="B149" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C149" t="s" s="2">
+      <c r="C149" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D149" t="s" s="2">
+      <c r="D149" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E149" t="s" s="2">
+      <c r="E149" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F149" t="s" s="2">
+      <c r="F149" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G149" t="s" s="2">
+      <c r="G149" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H149" t="s" s="2">
+      <c r="H149" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I149" t="s" s="2">
+      <c r="I149" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4580,10 +4592,10 @@
       <c r="I154">
         <f>((C154-C153)^2+(D154- D153)^2)^.5</f>
       </c>
-      <c r="J154" s="2" t="s">
+      <c r="J154" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K154" s="2" t="s">
+      <c r="K154" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L154" t="n">
@@ -4627,28 +4639,28 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="s" s="2">
+      <c r="A156" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B156" t="s" s="2">
+      <c r="B156" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C156" t="s" s="2">
+      <c r="C156" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D156" t="s" s="2">
+      <c r="D156" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E156" t="s" s="2">
+      <c r="E156" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F156" t="s" s="2">
+      <c r="F156" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G156" t="s" s="2">
+      <c r="G156" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H156" t="s" s="2">
+      <c r="H156" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4673,28 +4685,28 @@
       </c>
     </row>
     <row r="158">
-      <c r="B158" t="s" s="2">
+      <c r="B158" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C158" t="s" s="2">
+      <c r="C158" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D158" t="s" s="2">
+      <c r="D158" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E158" t="s" s="2">
+      <c r="E158" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F158" t="s" s="2">
+      <c r="F158" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G158" t="s" s="2">
+      <c r="G158" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H158" t="s" s="2">
+      <c r="H158" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I158" t="s" s="2">
+      <c r="I158" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4898,10 +4910,10 @@
       <c r="I165">
         <f>((C165-C164)^2+(D165- D164)^2)^.5</f>
       </c>
-      <c r="J165" s="2" t="s">
+      <c r="J165" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K165" s="2" t="s">
+      <c r="K165" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L165" t="n">
@@ -4945,28 +4957,28 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="s" s="2">
+      <c r="A167" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B167" t="s" s="2">
+      <c r="B167" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C167" t="s" s="2">
+      <c r="C167" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D167" t="s" s="2">
+      <c r="D167" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E167" t="s" s="2">
+      <c r="E167" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F167" t="s" s="2">
+      <c r="F167" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G167" t="s" s="2">
+      <c r="G167" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H167" t="s" s="2">
+      <c r="H167" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4991,28 +5003,28 @@
       </c>
     </row>
     <row r="169">
-      <c r="B169" t="s" s="2">
+      <c r="B169" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C169" t="s" s="2">
+      <c r="C169" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D169" t="s" s="2">
+      <c r="D169" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E169" t="s" s="2">
+      <c r="E169" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F169" t="s" s="2">
+      <c r="F169" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G169" t="s" s="2">
+      <c r="G169" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H169" t="s" s="2">
+      <c r="H169" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I169" t="s" s="2">
+      <c r="I169" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5187,10 +5199,10 @@
       <c r="I175">
         <f>((C175-C174)^2+(D175- D174)^2)^.5</f>
       </c>
-      <c r="J175" s="2" t="s">
+      <c r="J175" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K175" s="2" t="s">
+      <c r="K175" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L175" t="n">
@@ -5234,28 +5246,28 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="s" s="2">
+      <c r="A177" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="B177" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C177" t="s" s="2">
+      <c r="C177" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D177" t="s" s="2">
+      <c r="D177" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="E177" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F177" t="s" s="2">
+      <c r="F177" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G177" t="s" s="2">
+      <c r="G177" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H177" t="s" s="2">
+      <c r="H177" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5280,28 +5292,28 @@
       </c>
     </row>
     <row r="179">
-      <c r="B179" t="s" s="2">
+      <c r="B179" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C179" t="s" s="2">
+      <c r="C179" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D179" t="s" s="2">
+      <c r="D179" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E179" t="s" s="2">
+      <c r="E179" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F179" t="s" s="2">
+      <c r="F179" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G179" t="s" s="2">
+      <c r="G179" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H179" t="s" s="2">
+      <c r="H179" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I179" t="s" s="2">
+      <c r="I179" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5737,10 +5749,10 @@
       <c r="I194">
         <f>((C194-C193)^2+(D194- D193)^2)^.5</f>
       </c>
-      <c r="J194" s="2" t="s">
+      <c r="J194" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K194" s="2" t="s">
+      <c r="K194" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L194" t="n">
@@ -5784,28 +5796,28 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="s" s="2">
+      <c r="A196" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B196" t="s" s="2">
+      <c r="B196" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C196" t="s" s="2">
+      <c r="C196" t="s" s="4">
         <v>11</v>
       </c>
-      <c r="D196" t="s" s="2">
+      <c r="D196" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E196" t="s" s="2">
+      <c r="E196" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F196" t="s" s="2">
+      <c r="F196" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G196" t="s" s="2">
+      <c r="G196" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H196" t="s" s="2">
+      <c r="H196" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5830,28 +5842,28 @@
       </c>
     </row>
     <row r="198">
-      <c r="B198" t="s" s="2">
+      <c r="B198" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C198" t="s" s="2">
+      <c r="C198" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D198" t="s" s="2">
+      <c r="D198" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E198" t="s" s="2">
+      <c r="E198" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F198" t="s" s="2">
+      <c r="F198" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G198" t="s" s="2">
+      <c r="G198" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H198" t="s" s="2">
+      <c r="H198" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I198" t="s" s="2">
+      <c r="I198" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5939,10 +5951,10 @@
       <c r="I201">
         <f>((C201-C200)^2+(D201- D200)^2)^.5</f>
       </c>
-      <c r="J201" s="2" t="s">
+      <c r="J201" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="K201" s="2" t="s">
+      <c r="K201" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L201" t="n">
